--- a/location/l10n_sv_hr_retenciones/static/src/plantilla/plantilla_deducciones_salariales.xlsx
+++ b/location/l10n_sv_hr_retenciones/static/src/plantilla/plantilla_deducciones_salariales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\fe\location\l10n_sv_hr_retenciones\static\src\plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C0C1441-D74F-4CBC-B9B7-C96AAF1994FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5DB767-11E8-4242-B3BE-D23AE6A4C356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Deducciones" sheetId="1" r:id="rId1"/>
     <sheet name="Opciones" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Descripción</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>Valor negativo</t>
+  </si>
+  <si>
+    <t>AE DE PAZ</t>
+  </si>
+  <si>
+    <t>INNUFFE</t>
+  </si>
+  <si>
+    <t>INVERSIONES COMERCIALES ESCOBAR SA DE CV</t>
+  </si>
+  <si>
+    <t>Empresa</t>
   </si>
 </sst>
 </file>
@@ -70,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -161,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -169,15 +181,13 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,58 +493,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.23046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="30.69140625" customWidth="1"/>
-    <col min="3" max="3" width="30.69140625" style="10" customWidth="1"/>
-    <col min="4" max="5" width="30.69140625" customWidth="1"/>
-    <col min="6" max="7" width="31.15234375" customWidth="1"/>
+    <col min="1" max="3" width="30.69140625" customWidth="1"/>
+    <col min="4" max="4" width="30.69140625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="30.69140625" customWidth="1"/>
+    <col min="7" max="8" width="31.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{05917B3D-BFC7-4E79-A0BC-054C37863A2E}">
           <x14:formula1>
             <xm:f>Opciones!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{66CDDD27-84B6-45D9-AF1B-46E0BFA775B3}">
+          <x14:formula1>
+            <xm:f>Opciones!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
@@ -547,54 +566,68 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67808E6D-5274-4D1F-BA45-0CAF40705A1B}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.23046875" customWidth="1"/>
-    <col min="2" max="3" width="11.3046875" customWidth="1"/>
+    <col min="2" max="2" width="11.3046875" customWidth="1"/>
+    <col min="3" max="3" width="40.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Tn+KCU/UrpYWFt6N5JxOFZkvY2Nt3htgnYQY37SOfuiOC9QCe9spGa1akvfpbR4WlsEDMxSsBXV0yW7YMtxdjg==" saltValue="Oex5+8ON3ShKESCg/YKYJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>